--- a/www/IndicatorsPerCountry/Turkey_GDPperCapita_TerritorialRef_1946_2012_CCode_792.xlsx
+++ b/www/IndicatorsPerCountry/Turkey_GDPperCapita_TerritorialRef_1946_2012_CCode_792.xlsx
@@ -342,13 +342,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Turkey_GDPperCapita_TerritorialRef_1946_2012_CCode_792.xlsx
+++ b/www/IndicatorsPerCountry/Turkey_GDPperCapita_TerritorialRef_1946_2012_CCode_792.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="121">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,283 +36,310 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>660</t>
+    <t>768</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>825</t>
-  </si>
-  <si>
-    <t>1213</t>
-  </si>
-  <si>
-    <t>712</t>
-  </si>
-  <si>
-    <t>846</t>
-  </si>
-  <si>
-    <t>936</t>
-  </si>
-  <si>
-    <t>1079</t>
+    <t>832</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
+    <t>923</t>
   </si>
   <si>
     <t>974</t>
   </si>
   <si>
-    <t>1063</t>
-  </si>
-  <si>
-    <t>1249</t>
-  </si>
-  <si>
-    <t>1302</t>
-  </si>
-  <si>
-    <t>1205</t>
-  </si>
-  <si>
-    <t>1342</t>
-  </si>
-  <si>
-    <t>1351</t>
-  </si>
-  <si>
-    <t>1357</t>
-  </si>
-  <si>
-    <t>1588</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1724</t>
-  </si>
-  <si>
-    <t>1814</t>
-  </si>
-  <si>
-    <t>1675</t>
-  </si>
-  <si>
-    <t>1508</t>
-  </si>
-  <si>
-    <t>1557</t>
-  </si>
-  <si>
-    <t>1398</t>
-  </si>
-  <si>
-    <t>1324</t>
-  </si>
-  <si>
-    <t>1133</t>
-  </si>
-  <si>
-    <t>1430</t>
-  </si>
-  <si>
-    <t>1476</t>
-  </si>
-  <si>
-    <t>1637</t>
-  </si>
-  <si>
-    <t>1519</t>
-  </si>
-  <si>
-    <t>1623</t>
-  </si>
-  <si>
-    <t>1784</t>
-  </si>
-  <si>
-    <t>1947</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>2093</t>
-  </si>
-  <si>
-    <t>2097</t>
-  </si>
-  <si>
-    <t>2194</t>
-  </si>
-  <si>
-    <t>2222</t>
-  </si>
-  <si>
-    <t>2252</t>
-  </si>
-  <si>
-    <t>2247</t>
-  </si>
-  <si>
-    <t>2221</t>
-  </si>
-  <si>
-    <t>2297</t>
-  </si>
-  <si>
-    <t>2454</t>
-  </si>
-  <si>
-    <t>2496</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2735</t>
-  </si>
-  <si>
-    <t>2795</t>
-  </si>
-  <si>
-    <t>2917</t>
-  </si>
-  <si>
-    <t>3002</t>
-  </si>
-  <si>
-    <t>3078</t>
-  </si>
-  <si>
-    <t>3282</t>
-  </si>
-  <si>
-    <t>3412</t>
-  </si>
-  <si>
-    <t>3477</t>
-  </si>
-  <si>
-    <t>3665</t>
-  </si>
-  <si>
-    <t>3895</t>
-  </si>
-  <si>
-    <t>4138</t>
-  </si>
-  <si>
-    <t>4224</t>
-  </si>
-  <si>
-    <t>4255</t>
-  </si>
-  <si>
-    <t>4133</t>
-  </si>
-  <si>
-    <t>4022</t>
-  </si>
-  <si>
-    <t>4087</t>
-  </si>
-  <si>
-    <t>4182</t>
-  </si>
-  <si>
-    <t>4230</t>
-  </si>
-  <si>
-    <t>4367</t>
-  </si>
-  <si>
-    <t>4485</t>
-  </si>
-  <si>
-    <t>4695</t>
-  </si>
-  <si>
-    <t>4998</t>
-  </si>
-  <si>
-    <t>5086</t>
-  </si>
-  <si>
-    <t>5041</t>
-  </si>
-  <si>
-    <t>5399.42235489</t>
-  </si>
-  <si>
-    <t>5346.45794128</t>
-  </si>
-  <si>
-    <t>5562.11565341</t>
-  </si>
-  <si>
-    <t>5901.96090235</t>
-  </si>
-  <si>
-    <t>5482.19341519</t>
-  </si>
-  <si>
-    <t>5774.62566687</t>
-  </si>
-  <si>
-    <t>6073.48860163</t>
-  </si>
-  <si>
-    <t>6420.72233804</t>
-  </si>
-  <si>
-    <t>6509.61179971</t>
-  </si>
-  <si>
-    <t>6188.30138558</t>
-  </si>
-  <si>
-    <t>6501.99794146</t>
-  </si>
-  <si>
-    <t>6035.13549468</t>
-  </si>
-  <si>
-    <t>6308.07794696</t>
-  </si>
-  <si>
-    <t>6539.54151349</t>
-  </si>
-  <si>
-    <t>7045.47785237</t>
-  </si>
-  <si>
-    <t>7525.98645922</t>
-  </si>
-  <si>
-    <t>7929.96444137</t>
-  </si>
-  <si>
-    <t>8184.53696135</t>
-  </si>
-  <si>
-    <t>8126.93802029</t>
-  </si>
-  <si>
-    <t>7632.86037254</t>
-  </si>
-  <si>
-    <t>8224.86084284</t>
+    <t>1165</t>
+  </si>
+  <si>
+    <t>1473</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>1084</t>
+  </si>
+  <si>
+    <t>1199</t>
+  </si>
+  <si>
+    <t>1382</t>
+  </si>
+  <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>1361</t>
+  </si>
+  <si>
+    <t>1554</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>1669</t>
+  </si>
+  <si>
+    <t>1543</t>
+  </si>
+  <si>
+    <t>1718</t>
+  </si>
+  <si>
+    <t>1731</t>
+  </si>
+  <si>
+    <t>1739</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>2066</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2324</t>
+  </si>
+  <si>
+    <t>2146</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1792</t>
+  </si>
+  <si>
+    <t>1696</t>
+  </si>
+  <si>
+    <t>1452</t>
+  </si>
+  <si>
+    <t>1831</t>
+  </si>
+  <si>
+    <t>1890</t>
+  </si>
+  <si>
+    <t>2098</t>
+  </si>
+  <si>
+    <t>1946</t>
+  </si>
+  <si>
+    <t>2079</t>
+  </si>
+  <si>
+    <t>2299</t>
+  </si>
+  <si>
+    <t>2522</t>
+  </si>
+  <si>
+    <t>2745</t>
+  </si>
+  <si>
+    <t>2609</t>
+  </si>
+  <si>
+    <t>2754</t>
+  </si>
+  <si>
+    <t>2777</t>
+  </si>
+  <si>
+    <t>2920</t>
+  </si>
+  <si>
+    <t>2973</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>3041</t>
+  </si>
+  <si>
+    <t>3022</t>
+  </si>
+  <si>
+    <t>3142</t>
+  </si>
+  <si>
+    <t>3374</t>
+  </si>
+  <si>
+    <t>3453</t>
+  </si>
+  <si>
+    <t>3481</t>
+  </si>
+  <si>
+    <t>3824</t>
+  </si>
+  <si>
+    <t>3929</t>
+  </si>
+  <si>
+    <t>4122</t>
+  </si>
+  <si>
+    <t>4267</t>
+  </si>
+  <si>
+    <t>4398</t>
+  </si>
+  <si>
+    <t>4715</t>
+  </si>
+  <si>
+    <t>4929</t>
+  </si>
+  <si>
+    <t>5050</t>
+  </si>
+  <si>
+    <t>5353</t>
+  </si>
+  <si>
+    <t>5719</t>
+  </si>
+  <si>
+    <t>6110</t>
+  </si>
+  <si>
+    <t>6271</t>
+  </si>
+  <si>
+    <t>6350</t>
+  </si>
+  <si>
+    <t>6204</t>
+  </si>
+  <si>
+    <t>6070</t>
+  </si>
+  <si>
+    <t>6201</t>
+  </si>
+  <si>
+    <t>6381</t>
+  </si>
+  <si>
+    <t>6489</t>
+  </si>
+  <si>
+    <t>6736</t>
+  </si>
+  <si>
+    <t>6958</t>
+  </si>
+  <si>
+    <t>7323</t>
+  </si>
+  <si>
+    <t>7838</t>
+  </si>
+  <si>
+    <t>8019</t>
+  </si>
+  <si>
+    <t>7992</t>
+  </si>
+  <si>
+    <t>8606</t>
+  </si>
+  <si>
+    <t>8658.37842796921</t>
+  </si>
+  <si>
+    <t>9150.43455900429</t>
+  </si>
+  <si>
+    <t>9865.30068443511</t>
+  </si>
+  <si>
+    <t>9308.69542090803</t>
+  </si>
+  <si>
+    <t>9962.53657231796</t>
+  </si>
+  <si>
+    <t>10644.6339797202</t>
+  </si>
+  <si>
+    <t>11432.4368129268</t>
+  </si>
+  <si>
+    <t>11772.8300513344</t>
+  </si>
+  <si>
+    <t>11151.6736208847</t>
+  </si>
+  <si>
+    <t>11904.0081810757</t>
+  </si>
+  <si>
+    <t>10950.9920936764</t>
+  </si>
+  <si>
+    <t>11753.9536089193</t>
+  </si>
+  <si>
+    <t>12380.2068319438</t>
+  </si>
+  <si>
+    <t>13423.7946262089</t>
+  </si>
+  <si>
+    <t>14487.7582879573</t>
+  </si>
+  <si>
+    <t>15425.1887111932</t>
+  </si>
+  <si>
+    <t>16090.83483799</t>
+  </si>
+  <si>
+    <t>16182.7328044146</t>
+  </si>
+  <si>
+    <t>15188.4204477249</t>
+  </si>
+  <si>
+    <t>16528.1192728259</t>
+  </si>
+  <si>
+    <t>17919</t>
+  </si>
+  <si>
+    <t>18170</t>
+  </si>
+  <si>
+    <t>18788</t>
+  </si>
+  <si>
+    <t>19277</t>
+  </si>
+  <si>
+    <t>19836</t>
+  </si>
+  <si>
+    <t>17906</t>
   </si>
   <si>
     <t>Description</t>
@@ -2980,7 +3007,7 @@
         <v>1650.0</v>
       </c>
       <c r="E152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153">
@@ -3830,7 +3857,7 @@
         <v>1700.0</v>
       </c>
       <c r="E202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203">
@@ -4680,7 +4707,7 @@
         <v>1750.0</v>
       </c>
       <c r="E252" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253">
@@ -5870,7 +5897,7 @@
         <v>1820.0</v>
       </c>
       <c r="E322" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323">
@@ -6720,7 +6747,7 @@
         <v>1870.0</v>
       </c>
       <c r="E372" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="373">
@@ -7451,7 +7478,7 @@
         <v>1913.0</v>
       </c>
       <c r="E415" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="416">
@@ -7536,7 +7563,7 @@
         <v>1918.0</v>
       </c>
       <c r="E420" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="421">
@@ -7621,7 +7648,7 @@
         <v>1923.0</v>
       </c>
       <c r="E425" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="426">
@@ -7638,7 +7665,7 @@
         <v>1924.0</v>
       </c>
       <c r="E426" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="427">
@@ -7655,7 +7682,7 @@
         <v>1925.0</v>
       </c>
       <c r="E427" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="428">
@@ -7672,7 +7699,7 @@
         <v>1926.0</v>
       </c>
       <c r="E428" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="429">
@@ -7689,7 +7716,7 @@
         <v>1927.0</v>
       </c>
       <c r="E429" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="430">
@@ -7706,7 +7733,7 @@
         <v>1928.0</v>
       </c>
       <c r="E430" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="431">
@@ -7723,7 +7750,7 @@
         <v>1929.0</v>
       </c>
       <c r="E431" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="432">
@@ -7740,7 +7767,7 @@
         <v>1930.0</v>
       </c>
       <c r="E432" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="433">
@@ -7757,7 +7784,7 @@
         <v>1931.0</v>
       </c>
       <c r="E433" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="434">
@@ -7774,7 +7801,7 @@
         <v>1932.0</v>
       </c>
       <c r="E434" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="435">
@@ -7791,7 +7818,7 @@
         <v>1933.0</v>
       </c>
       <c r="E435" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="436">
@@ -7808,7 +7835,7 @@
         <v>1934.0</v>
       </c>
       <c r="E436" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="437">
@@ -7825,7 +7852,7 @@
         <v>1935.0</v>
       </c>
       <c r="E437" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="438">
@@ -7842,7 +7869,7 @@
         <v>1936.0</v>
       </c>
       <c r="E438" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="439">
@@ -7859,7 +7886,7 @@
         <v>1937.0</v>
       </c>
       <c r="E439" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="440">
@@ -7876,7 +7903,7 @@
         <v>1938.0</v>
       </c>
       <c r="E440" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="441">
@@ -7893,7 +7920,7 @@
         <v>1939.0</v>
       </c>
       <c r="E441" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="442">
@@ -7910,7 +7937,7 @@
         <v>1940.0</v>
       </c>
       <c r="E442" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="443">
@@ -7927,7 +7954,7 @@
         <v>1941.0</v>
       </c>
       <c r="E443" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="444">
@@ -7944,7 +7971,7 @@
         <v>1942.0</v>
       </c>
       <c r="E444" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="445">
@@ -7961,7 +7988,7 @@
         <v>1943.0</v>
       </c>
       <c r="E445" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="446">
@@ -7978,7 +8005,7 @@
         <v>1944.0</v>
       </c>
       <c r="E446" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="447">
@@ -7995,7 +8022,7 @@
         <v>1945.0</v>
       </c>
       <c r="E447" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="448">
@@ -8012,7 +8039,7 @@
         <v>1946.0</v>
       </c>
       <c r="E448" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="449">
@@ -8029,7 +8056,7 @@
         <v>1947.0</v>
       </c>
       <c r="E449" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="450">
@@ -8046,7 +8073,7 @@
         <v>1948.0</v>
       </c>
       <c r="E450" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="451">
@@ -8063,7 +8090,7 @@
         <v>1949.0</v>
       </c>
       <c r="E451" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="452">
@@ -8080,7 +8107,7 @@
         <v>1950.0</v>
       </c>
       <c r="E452" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="453">
@@ -8097,7 +8124,7 @@
         <v>1951.0</v>
       </c>
       <c r="E453" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="454">
@@ -8114,7 +8141,7 @@
         <v>1952.0</v>
       </c>
       <c r="E454" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="455">
@@ -8131,7 +8158,7 @@
         <v>1953.0</v>
       </c>
       <c r="E455" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="456">
@@ -8148,7 +8175,7 @@
         <v>1954.0</v>
       </c>
       <c r="E456" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="457">
@@ -8165,7 +8192,7 @@
         <v>1955.0</v>
       </c>
       <c r="E457" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="458">
@@ -8182,7 +8209,7 @@
         <v>1956.0</v>
       </c>
       <c r="E458" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="459">
@@ -8199,7 +8226,7 @@
         <v>1957.0</v>
       </c>
       <c r="E459" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="460">
@@ -8216,7 +8243,7 @@
         <v>1958.0</v>
       </c>
       <c r="E460" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="461">
@@ -8233,7 +8260,7 @@
         <v>1959.0</v>
       </c>
       <c r="E461" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="462">
@@ -8250,7 +8277,7 @@
         <v>1960.0</v>
       </c>
       <c r="E462" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="463">
@@ -8267,7 +8294,7 @@
         <v>1961.0</v>
       </c>
       <c r="E463" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="464">
@@ -8284,7 +8311,7 @@
         <v>1962.0</v>
       </c>
       <c r="E464" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="465">
@@ -8301,7 +8328,7 @@
         <v>1963.0</v>
       </c>
       <c r="E465" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="466">
@@ -8318,7 +8345,7 @@
         <v>1964.0</v>
       </c>
       <c r="E466" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="467">
@@ -8335,7 +8362,7 @@
         <v>1965.0</v>
       </c>
       <c r="E467" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="468">
@@ -8352,7 +8379,7 @@
         <v>1966.0</v>
       </c>
       <c r="E468" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="469">
@@ -8369,7 +8396,7 @@
         <v>1967.0</v>
       </c>
       <c r="E469" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="470">
@@ -8386,7 +8413,7 @@
         <v>1968.0</v>
       </c>
       <c r="E470" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="471">
@@ -8403,7 +8430,7 @@
         <v>1969.0</v>
       </c>
       <c r="E471" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="472">
@@ -8420,7 +8447,7 @@
         <v>1970.0</v>
       </c>
       <c r="E472" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="473">
@@ -8437,7 +8464,7 @@
         <v>1971.0</v>
       </c>
       <c r="E473" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="474">
@@ -8454,7 +8481,7 @@
         <v>1972.0</v>
       </c>
       <c r="E474" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="475">
@@ -8471,7 +8498,7 @@
         <v>1973.0</v>
       </c>
       <c r="E475" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="476">
@@ -8488,7 +8515,7 @@
         <v>1974.0</v>
       </c>
       <c r="E476" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="477">
@@ -8505,7 +8532,7 @@
         <v>1975.0</v>
       </c>
       <c r="E477" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="478">
@@ -8522,7 +8549,7 @@
         <v>1976.0</v>
       </c>
       <c r="E478" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="479">
@@ -8539,7 +8566,7 @@
         <v>1977.0</v>
       </c>
       <c r="E479" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="480">
@@ -8556,7 +8583,7 @@
         <v>1978.0</v>
       </c>
       <c r="E480" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="481">
@@ -8573,7 +8600,7 @@
         <v>1979.0</v>
       </c>
       <c r="E481" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="482">
@@ -8590,7 +8617,7 @@
         <v>1980.0</v>
       </c>
       <c r="E482" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="483">
@@ -8607,7 +8634,7 @@
         <v>1981.0</v>
       </c>
       <c r="E483" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="484">
@@ -8624,7 +8651,7 @@
         <v>1982.0</v>
       </c>
       <c r="E484" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="485">
@@ -8641,7 +8668,7 @@
         <v>1983.0</v>
       </c>
       <c r="E485" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="486">
@@ -8658,7 +8685,7 @@
         <v>1984.0</v>
       </c>
       <c r="E486" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="487">
@@ -8675,7 +8702,7 @@
         <v>1985.0</v>
       </c>
       <c r="E487" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="488">
@@ -8692,7 +8719,7 @@
         <v>1986.0</v>
       </c>
       <c r="E488" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="489">
@@ -8709,7 +8736,7 @@
         <v>1987.0</v>
       </c>
       <c r="E489" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="490">
@@ -8726,7 +8753,7 @@
         <v>1988.0</v>
       </c>
       <c r="E490" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="491">
@@ -8743,7 +8770,7 @@
         <v>1989.0</v>
       </c>
       <c r="E491" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="492">
@@ -8760,7 +8787,7 @@
         <v>1990.0</v>
       </c>
       <c r="E492" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="493">
@@ -8777,7 +8804,7 @@
         <v>1991.0</v>
       </c>
       <c r="E493" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="494">
@@ -8794,7 +8821,7 @@
         <v>1992.0</v>
       </c>
       <c r="E494" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="495">
@@ -8811,7 +8838,7 @@
         <v>1993.0</v>
       </c>
       <c r="E495" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="496">
@@ -8828,7 +8855,7 @@
         <v>1994.0</v>
       </c>
       <c r="E496" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="497">
@@ -8845,7 +8872,7 @@
         <v>1995.0</v>
       </c>
       <c r="E497" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="498">
@@ -8862,7 +8889,7 @@
         <v>1996.0</v>
       </c>
       <c r="E498" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="499">
@@ -8879,7 +8906,7 @@
         <v>1997.0</v>
       </c>
       <c r="E499" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="500">
@@ -8896,7 +8923,7 @@
         <v>1998.0</v>
       </c>
       <c r="E500" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="501">
@@ -8913,7 +8940,7 @@
         <v>1999.0</v>
       </c>
       <c r="E501" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="502">
@@ -8930,7 +8957,7 @@
         <v>2000.0</v>
       </c>
       <c r="E502" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="503">
@@ -8947,7 +8974,7 @@
         <v>2001.0</v>
       </c>
       <c r="E503" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="504">
@@ -8964,7 +8991,7 @@
         <v>2002.0</v>
       </c>
       <c r="E504" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="505">
@@ -8981,7 +9008,7 @@
         <v>2003.0</v>
       </c>
       <c r="E505" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="506">
@@ -8998,7 +9025,7 @@
         <v>2004.0</v>
       </c>
       <c r="E506" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="507">
@@ -9015,7 +9042,7 @@
         <v>2005.0</v>
       </c>
       <c r="E507" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="508">
@@ -9032,7 +9059,7 @@
         <v>2006.0</v>
       </c>
       <c r="E508" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="509">
@@ -9049,7 +9076,7 @@
         <v>2007.0</v>
       </c>
       <c r="E509" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="510">
@@ -9066,7 +9093,7 @@
         <v>2008.0</v>
       </c>
       <c r="E510" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="511">
@@ -9083,7 +9110,7 @@
         <v>2009.0</v>
       </c>
       <c r="E511" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="512">
@@ -9100,7 +9127,109 @@
         <v>2010.0</v>
       </c>
       <c r="E512" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B513" t="s">
+        <v>5</v>
+      </c>
+      <c r="C513" t="s">
+        <v>6</v>
+      </c>
+      <c r="D513" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E513" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B514" t="s">
+        <v>5</v>
+      </c>
+      <c r="C514" t="s">
+        <v>6</v>
+      </c>
+      <c r="D514" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E514" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B515" t="s">
+        <v>5</v>
+      </c>
+      <c r="C515" t="s">
+        <v>6</v>
+      </c>
+      <c r="D515" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E515" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B516" t="s">
+        <v>5</v>
+      </c>
+      <c r="C516" t="s">
+        <v>6</v>
+      </c>
+      <c r="D516" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E516" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B517" t="s">
+        <v>5</v>
+      </c>
+      <c r="C517" t="s">
+        <v>6</v>
+      </c>
+      <c r="D517" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E517" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B518" t="s">
+        <v>5</v>
+      </c>
+      <c r="C518" t="s">
+        <v>6</v>
+      </c>
+      <c r="D518" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E518" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -9118,50 +9247,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
